--- a/data/financial_statements/soci/FMC.xlsx
+++ b/data/financial_statements/soci/FMC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,141 +613,141 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1377000000</v>
+        <v>1377200000</v>
       </c>
       <c r="C2">
-        <v>1452000000</v>
+        <v>1452300000</v>
       </c>
       <c r="D2">
-        <v>1351000000</v>
+        <v>1350800000</v>
       </c>
       <c r="E2">
-        <v>1414000000</v>
+        <v>1413600000</v>
       </c>
       <c r="F2">
         <v>1194000000</v>
@@ -745,20 +856,20 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1533</v>
+        <v>0.1534</v>
       </c>
       <c r="C3">
-        <v>0.1691</v>
+        <v>0.1693</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
+        <v>0.1298</v>
       </c>
       <c r="E3">
-        <v>0.2272</v>
+        <v>0.2269</v>
       </c>
       <c r="F3">
         <v>0.1009</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>892000000</v>
+        <v>899700000</v>
       </c>
       <c r="C4">
-        <v>830000000</v>
+        <v>861300000</v>
       </c>
       <c r="D4">
-        <v>757000000</v>
+        <v>778100000</v>
       </c>
       <c r="E4">
-        <v>808000000</v>
+        <v>797600000</v>
       </c>
       <c r="F4">
-        <v>683000000</v>
+        <v>682500000</v>
       </c>
       <c r="G4">
         <v>710200000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>485000000</v>
+        <v>477499900</v>
       </c>
       <c r="C5">
-        <v>623000000</v>
+        <v>591000100</v>
       </c>
       <c r="D5">
-        <v>594000000</v>
+        <v>572700100</v>
       </c>
       <c r="E5">
-        <v>605000000</v>
+        <v>616000200</v>
       </c>
       <c r="F5">
-        <v>511000000</v>
+        <v>511500000</v>
       </c>
       <c r="G5">
         <v>531800000</v>
@@ -1111,23 +1222,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>79000000</v>
+        <v>78500000</v>
       </c>
       <c r="C6">
-        <v>80000000</v>
+        <v>79500000</v>
       </c>
       <c r="D6">
-        <v>72000000</v>
+        <v>71800000</v>
       </c>
       <c r="E6">
-        <v>85000000</v>
+        <v>85300000</v>
       </c>
       <c r="F6">
-        <v>80000000</v>
+        <v>79500000</v>
       </c>
       <c r="G6">
         <v>65900000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>179400000</v>
@@ -1249,7 +1360,7 @@
         <v>195100000</v>
       </c>
       <c r="F7">
-        <v>185000000</v>
+        <v>183500000</v>
       </c>
       <c r="G7">
         <v>161000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>210600000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>41000000</v>
@@ -1518,8 +1629,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>41800000</v>
@@ -1640,23 +1751,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-17000000</v>
+        <v>-40100000</v>
       </c>
       <c r="C11">
-        <v>84000000</v>
+        <v>-39200000</v>
       </c>
       <c r="D11">
-        <v>23000000</v>
+        <v>-34200000</v>
       </c>
       <c r="E11">
-        <v>51000000</v>
+        <v>-41900000</v>
       </c>
       <c r="F11">
-        <v>23000000</v>
+        <v>-34600000</v>
       </c>
       <c r="G11">
         <v>-37400000</v>
@@ -1762,23 +1873,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>171000000</v>
+        <v>170500000</v>
       </c>
       <c r="C12">
-        <v>197000000</v>
+        <v>196700000</v>
       </c>
       <c r="D12">
-        <v>269000000</v>
+        <v>269100000</v>
       </c>
       <c r="E12">
-        <v>240000000</v>
+        <v>237999900</v>
       </c>
       <c r="F12">
-        <v>179000000</v>
+        <v>181100000</v>
       </c>
       <c r="G12">
         <v>251200000</v>
@@ -1884,23 +1995,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>36000000</v>
       </c>
       <c r="C13">
-        <v>55000000</v>
+        <v>54700000</v>
       </c>
       <c r="D13">
-        <v>42000000</v>
+        <v>42300000</v>
       </c>
       <c r="E13">
-        <v>17000000</v>
+        <v>16800000</v>
       </c>
       <c r="F13">
-        <v>9000000</v>
+        <v>9200000</v>
       </c>
       <c r="G13">
         <v>33400000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>134500000</v>
@@ -2128,8 +2239,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2169,8 +2280,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-2700000</v>
@@ -2288,23 +2399,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>121000000</v>
       </c>
       <c r="C17">
-        <v>134000000</v>
+        <v>134200000</v>
       </c>
       <c r="D17">
-        <v>207000000</v>
+        <v>207400000</v>
       </c>
       <c r="E17">
-        <v>193000000</v>
+        <v>189500000</v>
       </c>
       <c r="F17">
-        <v>158000000</v>
+        <v>159700000</v>
       </c>
       <c r="G17">
         <v>202900000</v>
@@ -2410,20 +2521,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C18">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D18">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="E18">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F18">
         <v>1.22</v>
@@ -2532,8 +2643,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.95</v>
@@ -2654,23 +2765,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>126000000</v>
+        <v>126224000</v>
       </c>
       <c r="C20">
-        <v>126000000</v>
+        <v>126204000</v>
       </c>
       <c r="D20">
-        <v>126000000</v>
+        <v>126064000</v>
       </c>
       <c r="E20">
-        <v>127000000</v>
+        <v>128403000</v>
       </c>
       <c r="F20">
-        <v>128000000</v>
+        <v>128313000</v>
       </c>
       <c r="G20">
         <v>129090000</v>
@@ -2776,23 +2887,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>127000000</v>
+        <v>126891000</v>
       </c>
       <c r="C21">
-        <v>127000000</v>
+        <v>126946000</v>
       </c>
       <c r="D21">
-        <v>127000000</v>
+        <v>126839000</v>
       </c>
       <c r="E21">
-        <v>127000000</v>
+        <v>129146000</v>
       </c>
       <c r="F21">
-        <v>129000000</v>
+        <v>128991000</v>
       </c>
       <c r="G21">
         <v>129891000</v>
@@ -2898,23 +3009,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.3522</v>
+        <v>0.3467</v>
       </c>
       <c r="C22">
-        <v>0.4291</v>
+        <v>0.4069</v>
       </c>
       <c r="D22">
-        <v>0.4397</v>
+        <v>0.424</v>
       </c>
       <c r="E22">
-        <v>0.4279</v>
+        <v>0.4358</v>
       </c>
       <c r="F22">
-        <v>0.428</v>
+        <v>0.4284</v>
       </c>
       <c r="G22">
         <v>0.4282</v>
@@ -3020,20 +3131,20 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1529</v>
       </c>
       <c r="C23">
-        <v>0.1625</v>
+        <v>0.1624</v>
       </c>
       <c r="D23">
         <v>0.2245</v>
       </c>
       <c r="E23">
-        <v>0.1979</v>
+        <v>0.198</v>
       </c>
       <c r="F23">
         <v>0.1807</v>
@@ -3142,23 +3253,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.1242</v>
+        <v>0.1238</v>
       </c>
       <c r="C24">
-        <v>0.1357</v>
+        <v>0.1354</v>
       </c>
       <c r="D24">
-        <v>0.1991</v>
+        <v>0.1992</v>
       </c>
       <c r="E24">
-        <v>0.1697</v>
+        <v>0.1684</v>
       </c>
       <c r="F24">
-        <v>0.1499</v>
+        <v>0.1517</v>
       </c>
       <c r="G24">
         <v>0.2023</v>
@@ -3264,23 +3375,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.08790000000000001</v>
       </c>
       <c r="C25">
-        <v>0.09229999999999999</v>
+        <v>0.0924</v>
       </c>
       <c r="D25">
-        <v>0.1532</v>
+        <v>0.1535</v>
       </c>
       <c r="E25">
-        <v>0.1365</v>
+        <v>0.1341</v>
       </c>
       <c r="F25">
-        <v>0.1323</v>
+        <v>0.1338</v>
       </c>
       <c r="G25">
         <v>0.1634</v>
@@ -3386,23 +3497,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>272000000</v>
+        <v>252000000</v>
       </c>
       <c r="C26">
-        <v>389000000</v>
+        <v>278700000</v>
       </c>
       <c r="D26">
-        <v>372000000</v>
+        <v>345700200</v>
       </c>
       <c r="E26">
-        <v>354000000</v>
+        <v>322300600</v>
       </c>
       <c r="F26">
-        <v>294000000</v>
+        <v>259100000</v>
       </c>
       <c r="G26">
         <v>331100000</v>
@@ -3508,8 +3619,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>210600000</v>
@@ -3630,8 +3741,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>134500000</v>
@@ -3752,8 +3863,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>-16200000</v>
@@ -3874,23 +3985,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>134000000</v>
+        <v>118300000</v>
       </c>
       <c r="C30">
-        <v>142000000</v>
+        <v>131200000</v>
       </c>
       <c r="D30">
-        <v>226000000</v>
+        <v>211600000</v>
       </c>
       <c r="E30">
-        <v>223000000</v>
+        <v>185400000</v>
       </c>
       <c r="F30">
-        <v>170000000</v>
+        <v>162200000</v>
       </c>
       <c r="G30">
         <v>203200000</v>
@@ -3996,8 +4107,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1.09</v>
@@ -4118,8 +4229,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1.08</v>
@@ -4240,8 +4351,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-0.13</v>
@@ -4362,8 +4473,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-0.13</v>
@@ -4484,8 +4595,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.9372</v>
@@ -4606,8 +4717,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.9323</v>
@@ -4728,8 +4839,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>126900000</v>
@@ -4850,23 +4961,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.1975</v>
+        <v>0.183</v>
       </c>
       <c r="C38">
-        <v>0.2679</v>
+        <v>0.1919</v>
       </c>
       <c r="D38">
-        <v>0.2754</v>
+        <v>0.2559</v>
       </c>
       <c r="E38">
-        <v>0.2504</v>
+        <v>0.228</v>
       </c>
       <c r="F38">
-        <v>0.2462</v>
+        <v>0.217</v>
       </c>
       <c r="G38">
         <v>0.2666</v>
@@ -4972,8 +5083,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0.2886</v>
@@ -4982,10 +5093,10 @@
         <v>0.1207</v>
       </c>
       <c r="D39">
-        <v>-0.4506</v>
+        <v>-0.4507</v>
       </c>
       <c r="E39">
-        <v>0.4072</v>
+        <v>0.4073</v>
       </c>
       <c r="F39">
         <v>0.2647</v>
